--- a/data/pca/factorExposure/factorExposure_2019-02-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1100351622456639</v>
+        <v>-0.06773205545857414</v>
       </c>
       <c r="C2">
-        <v>-0.01547252857706782</v>
+        <v>0.0333351400166156</v>
       </c>
       <c r="D2">
-        <v>-0.04297535356070063</v>
+        <v>0.01882083326072794</v>
       </c>
       <c r="E2">
-        <v>-0.1468248952865275</v>
+        <v>0.03894248095362291</v>
       </c>
       <c r="F2">
-        <v>0.01406010930337458</v>
+        <v>-0.1376565486437547</v>
       </c>
       <c r="G2">
-        <v>-0.001532095548904633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.06035752400639086</v>
+      </c>
+      <c r="H2">
+        <v>0.04567191059544849</v>
+      </c>
+      <c r="I2">
+        <v>-0.07366549055428095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2117787480175895</v>
+        <v>-0.1603427324535596</v>
       </c>
       <c r="C3">
-        <v>-0.1600478759149919</v>
+        <v>0.09958210083964782</v>
       </c>
       <c r="D3">
-        <v>0.03746864181114529</v>
+        <v>-0.002124613772349875</v>
       </c>
       <c r="E3">
-        <v>-0.3366891790726452</v>
+        <v>-0.00454817875242057</v>
       </c>
       <c r="F3">
-        <v>0.08211997133310958</v>
+        <v>-0.3742045815080624</v>
       </c>
       <c r="G3">
-        <v>-0.06872742267107743</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2456189615959882</v>
+      </c>
+      <c r="H3">
+        <v>0.05035229118603162</v>
+      </c>
+      <c r="I3">
+        <v>-0.339285624149202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09578146572138778</v>
+        <v>-0.07175178266929795</v>
       </c>
       <c r="C4">
-        <v>-0.04430455515480394</v>
+        <v>0.04738064876166517</v>
       </c>
       <c r="D4">
-        <v>-0.02975497519265189</v>
+        <v>-0.01419618520613732</v>
       </c>
       <c r="E4">
-        <v>-0.07540199529080865</v>
+        <v>0.04029994536277323</v>
       </c>
       <c r="F4">
-        <v>0.03145395351972267</v>
+        <v>-0.08006291356610885</v>
       </c>
       <c r="G4">
-        <v>0.01500782312205915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.02583792561097039</v>
+      </c>
+      <c r="H4">
+        <v>0.04417449756648181</v>
+      </c>
+      <c r="I4">
+        <v>-0.04521185155384383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.02017257869886917</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01115806840544476</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005219205310017296</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00518272262807715</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.005351130156634331</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.002197072645210435</v>
+      </c>
+      <c r="H6">
+        <v>-0.01852473364984467</v>
+      </c>
+      <c r="I6">
+        <v>0.01336523005451419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.0419654268029081</v>
+        <v>-0.03571697203925464</v>
       </c>
       <c r="C7">
-        <v>-0.01382662789306589</v>
+        <v>0.01776665044690406</v>
       </c>
       <c r="D7">
-        <v>-0.0292773814486837</v>
+        <v>-0.03533348979022007</v>
       </c>
       <c r="E7">
-        <v>-0.06900018117188483</v>
+        <v>0.02791145145646796</v>
       </c>
       <c r="F7">
-        <v>0.01305247665171207</v>
+        <v>-0.05600442720761596</v>
       </c>
       <c r="G7">
-        <v>-0.04809754109807511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04954962935664668</v>
+      </c>
+      <c r="H7">
+        <v>0.007581506581930692</v>
+      </c>
+      <c r="I7">
+        <v>-0.01148457403243082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04771469334929083</v>
+        <v>-0.02999105248428877</v>
       </c>
       <c r="C8">
-        <v>-0.05370874124878746</v>
+        <v>0.04929867032396444</v>
       </c>
       <c r="D8">
-        <v>-0.007440372867976563</v>
+        <v>-0.01121901968681035</v>
       </c>
       <c r="E8">
-        <v>-0.06826914285796178</v>
+        <v>0.02158391333020748</v>
       </c>
       <c r="F8">
-        <v>0.01911904385792522</v>
+        <v>-0.07185004584933036</v>
       </c>
       <c r="G8">
-        <v>0.01255064045918854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.03945340638795018</v>
+      </c>
+      <c r="H8">
+        <v>0.03641829809592493</v>
+      </c>
+      <c r="I8">
+        <v>-0.05301878180595637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08185794853565168</v>
+        <v>-0.06104175421701283</v>
       </c>
       <c r="C9">
-        <v>-0.03883466721674983</v>
+        <v>0.04268501020827238</v>
       </c>
       <c r="D9">
-        <v>-0.039288296122891</v>
+        <v>-0.01796141170564639</v>
       </c>
       <c r="E9">
-        <v>-0.06203367747961541</v>
+        <v>0.03483197587847332</v>
       </c>
       <c r="F9">
-        <v>0.04421387344184621</v>
+        <v>-0.08114745423594021</v>
       </c>
       <c r="G9">
-        <v>0.02310771584375809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.02563431558232727</v>
+      </c>
+      <c r="H9">
+        <v>0.04250183350840587</v>
+      </c>
+      <c r="I9">
+        <v>-0.01950732516280415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.01752197855440498</v>
+        <v>-0.03594930582623772</v>
       </c>
       <c r="C10">
-        <v>0.1623811389164276</v>
+        <v>-0.16059516958311</v>
       </c>
       <c r="D10">
-        <v>0.03682306928052089</v>
+        <v>0.00899911439553493</v>
       </c>
       <c r="E10">
-        <v>-0.07016270114085313</v>
+        <v>-0.04015061786546188</v>
       </c>
       <c r="F10">
-        <v>-0.01401668330831754</v>
+        <v>-0.06721707681677079</v>
       </c>
       <c r="G10">
-        <v>0.00795696794199819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.001548171435700129</v>
+      </c>
+      <c r="H10">
+        <v>0.03213512320573014</v>
+      </c>
+      <c r="I10">
+        <v>-0.09608448570606148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05847954309325919</v>
+        <v>-0.04914981350782167</v>
       </c>
       <c r="C11">
-        <v>-0.01408796179840749</v>
+        <v>0.0317420980009274</v>
       </c>
       <c r="D11">
-        <v>0.003715062219855038</v>
+        <v>0.006504413626562275</v>
       </c>
       <c r="E11">
-        <v>-0.04611876416041978</v>
+        <v>0.0101688168382367</v>
       </c>
       <c r="F11">
-        <v>-0.008281321595037082</v>
+        <v>-0.03972835868365652</v>
       </c>
       <c r="G11">
-        <v>0.001296913869123311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.002123579763607565</v>
+      </c>
+      <c r="H11">
+        <v>0.01503533807882188</v>
+      </c>
+      <c r="I11">
+        <v>0.0005876692886337752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04566662893280347</v>
+        <v>-0.04536019347809152</v>
       </c>
       <c r="C12">
-        <v>-0.01896482252073439</v>
+        <v>0.02869796020868476</v>
       </c>
       <c r="D12">
-        <v>8.069892879861081e-05</v>
+        <v>-0.004665298880363934</v>
       </c>
       <c r="E12">
-        <v>-0.02735141295431725</v>
+        <v>0.01153618015036234</v>
       </c>
       <c r="F12">
-        <v>0.009318629681539617</v>
+        <v>-0.01516572101985367</v>
       </c>
       <c r="G12">
-        <v>-0.006170095163446959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.004673956488895474</v>
+      </c>
+      <c r="H12">
+        <v>0.004328544995853946</v>
+      </c>
+      <c r="I12">
+        <v>0.0008773043947386229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.0632855632152096</v>
+        <v>-0.04316808186615411</v>
       </c>
       <c r="C13">
-        <v>-0.02708619954987294</v>
+        <v>0.02525731301996641</v>
       </c>
       <c r="D13">
-        <v>0.004768639036786417</v>
+        <v>0.0158021515922664</v>
       </c>
       <c r="E13">
-        <v>-0.1121620188958066</v>
+        <v>0.008551135074219798</v>
       </c>
       <c r="F13">
-        <v>0.002304276411229137</v>
+        <v>-0.1042677208463209</v>
       </c>
       <c r="G13">
-        <v>-0.009332750348646619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.04159445116300761</v>
+      </c>
+      <c r="H13">
+        <v>0.02324662503187938</v>
+      </c>
+      <c r="I13">
+        <v>-0.03496408442637344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03423998857755519</v>
+        <v>-0.02793737055396438</v>
       </c>
       <c r="C14">
-        <v>-0.02188560321954904</v>
+        <v>0.02042957329004753</v>
       </c>
       <c r="D14">
-        <v>-0.02723824820077791</v>
+        <v>-0.00536703404056118</v>
       </c>
       <c r="E14">
-        <v>-0.03319629396351259</v>
+        <v>0.02686441252742179</v>
       </c>
       <c r="F14">
-        <v>-0.02267937753805372</v>
+        <v>-0.03937800291218081</v>
       </c>
       <c r="G14">
-        <v>-0.01439778520948325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.05557016648419866</v>
+      </c>
+      <c r="H14">
+        <v>0.01902970920979047</v>
+      </c>
+      <c r="I14">
+        <v>-0.013012445544077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04823420989934574</v>
+        <v>-0.04296435539064343</v>
       </c>
       <c r="C16">
-        <v>-0.02446625798631753</v>
+        <v>0.03619729602279681</v>
       </c>
       <c r="D16">
-        <v>0.004983437073124955</v>
+        <v>0.001105993123509532</v>
       </c>
       <c r="E16">
-        <v>-0.03448744181778344</v>
+        <v>0.009668816510136341</v>
       </c>
       <c r="F16">
-        <v>0.002461992183324258</v>
+        <v>-0.03536965080613406</v>
       </c>
       <c r="G16">
-        <v>-0.009318835884216855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.004756012526488267</v>
+      </c>
+      <c r="H16">
+        <v>0.003292926684401057</v>
+      </c>
+      <c r="I16">
+        <v>-0.006424287900782456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05649568824237153</v>
+        <v>-0.04788924335829729</v>
       </c>
       <c r="C19">
-        <v>-0.04564160037608864</v>
+        <v>0.04259283255139806</v>
       </c>
       <c r="D19">
-        <v>-0.0005963727437340306</v>
+        <v>0.002332670936870286</v>
       </c>
       <c r="E19">
-        <v>-0.08298388124035018</v>
+        <v>0.02370839538087923</v>
       </c>
       <c r="F19">
-        <v>-0.01345715782603088</v>
+        <v>-0.08607810990167154</v>
       </c>
       <c r="G19">
-        <v>-0.0451361083347799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06828717038937693</v>
+      </c>
+      <c r="H19">
+        <v>0.004600224347748663</v>
+      </c>
+      <c r="I19">
+        <v>-0.05710262161279357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03753265089331204</v>
+        <v>-0.01763752048589704</v>
       </c>
       <c r="C20">
-        <v>-0.03871479248109576</v>
+        <v>0.02926888036191503</v>
       </c>
       <c r="D20">
-        <v>-0.01655743793836841</v>
+        <v>-0.006016017566240312</v>
       </c>
       <c r="E20">
-        <v>-0.06846147332238864</v>
+        <v>0.0215719539453475</v>
       </c>
       <c r="F20">
-        <v>0.003080141877629393</v>
+        <v>-0.0682563905132068</v>
       </c>
       <c r="G20">
-        <v>-0.03394834520636737</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.06515876158203407</v>
+      </c>
+      <c r="H20">
+        <v>0.009323351470430901</v>
+      </c>
+      <c r="I20">
+        <v>-0.0522627939091587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03521112405904687</v>
+        <v>-0.03128797457116171</v>
       </c>
       <c r="C21">
-        <v>-0.02971481609136659</v>
+        <v>0.02966455042514188</v>
       </c>
       <c r="D21">
-        <v>-0.005926167436159535</v>
+        <v>-0.01229945299955559</v>
       </c>
       <c r="E21">
-        <v>-0.1160685918203063</v>
+        <v>0.007656547734695364</v>
       </c>
       <c r="F21">
-        <v>0.0003893475539339852</v>
+        <v>-0.0824839914787375</v>
       </c>
       <c r="G21">
-        <v>0.03508215316889506</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03009654616010618</v>
+      </c>
+      <c r="H21">
+        <v>0.04515952221403236</v>
+      </c>
+      <c r="I21">
+        <v>0.01344133444913612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05134120465071271</v>
+        <v>-0.04252797908332709</v>
       </c>
       <c r="C24">
-        <v>-0.02221025208436985</v>
+        <v>0.02935304322321907</v>
       </c>
       <c r="D24">
-        <v>0.0005497899674208454</v>
+        <v>0.0004609393062297182</v>
       </c>
       <c r="E24">
-        <v>-0.04534362605746312</v>
+        <v>0.01127396957589877</v>
       </c>
       <c r="F24">
-        <v>0.01062569003320561</v>
+        <v>-0.03877092416023697</v>
       </c>
       <c r="G24">
-        <v>-0.007308613744356219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.001969964705943404</v>
+      </c>
+      <c r="H24">
+        <v>0.006382935736348593</v>
+      </c>
+      <c r="I24">
+        <v>-0.002225173310582161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05166228711234255</v>
+        <v>-0.04841931388438022</v>
       </c>
       <c r="C25">
-        <v>-0.01330580465982499</v>
+        <v>0.02611745548894268</v>
       </c>
       <c r="D25">
-        <v>0.0007529488012927899</v>
+        <v>0.001878782431587112</v>
       </c>
       <c r="E25">
-        <v>-0.04337169583310054</v>
+        <v>0.009426843295493228</v>
       </c>
       <c r="F25">
-        <v>-0.000697448932127055</v>
+        <v>-0.04523852482214456</v>
       </c>
       <c r="G25">
-        <v>0.001955143142489909</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0003660425106746243</v>
+      </c>
+      <c r="H25">
+        <v>0.01211528029079024</v>
+      </c>
+      <c r="I25">
+        <v>0.005741193131108789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02226220694849794</v>
+        <v>-0.01770096316213672</v>
       </c>
       <c r="C26">
-        <v>-0.02898752725947248</v>
+        <v>0.02625878410100607</v>
       </c>
       <c r="D26">
-        <v>-0.007922930952984478</v>
+        <v>0.004325580860209662</v>
       </c>
       <c r="E26">
-        <v>-0.03952226188317544</v>
+        <v>0.00147863877462241</v>
       </c>
       <c r="F26">
-        <v>-0.02469586977002003</v>
+        <v>-0.04593565261252756</v>
       </c>
       <c r="G26">
-        <v>-0.007197020980953338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03862123912984149</v>
+      </c>
+      <c r="H26">
+        <v>0.01568070722112965</v>
+      </c>
+      <c r="I26">
+        <v>-0.001942108170337869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1214783637926249</v>
+        <v>-0.07285666420611195</v>
       </c>
       <c r="C27">
-        <v>-0.02873679996725067</v>
+        <v>0.02901045722820551</v>
       </c>
       <c r="D27">
-        <v>-0.01820293436492532</v>
+        <v>-0.004723428008093167</v>
       </c>
       <c r="E27">
-        <v>-0.08953288006229564</v>
+        <v>0.03474712929956852</v>
       </c>
       <c r="F27">
-        <v>0.0196839450274115</v>
+        <v>-0.068097875304832</v>
       </c>
       <c r="G27">
-        <v>0.01723954243199276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0145319990087344</v>
+      </c>
+      <c r="H27">
+        <v>0.02897240805361277</v>
+      </c>
+      <c r="I27">
+        <v>-0.03388164053970653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01166469272360286</v>
+        <v>-0.05149832360666007</v>
       </c>
       <c r="C28">
-        <v>0.2443107566227749</v>
+        <v>-0.2420462847917842</v>
       </c>
       <c r="D28">
-        <v>0.04789139129825945</v>
+        <v>0.00284744755376336</v>
       </c>
       <c r="E28">
-        <v>-0.04773327306483485</v>
+        <v>-0.05877726329251904</v>
       </c>
       <c r="F28">
-        <v>-0.01312724262143806</v>
+        <v>-0.05763346527410271</v>
       </c>
       <c r="G28">
-        <v>0.03803971897643987</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.005464756239982387</v>
+      </c>
+      <c r="H28">
+        <v>0.03734152364949557</v>
+      </c>
+      <c r="I28">
+        <v>-0.1492977689334909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02585783322498069</v>
+        <v>-0.02389214113231908</v>
       </c>
       <c r="C29">
-        <v>-0.0219017665491418</v>
+        <v>0.01792866743251099</v>
       </c>
       <c r="D29">
-        <v>-0.03133146773804978</v>
+        <v>-0.008817489821424111</v>
       </c>
       <c r="E29">
-        <v>-0.0363553530010474</v>
+        <v>0.02775532073121115</v>
       </c>
       <c r="F29">
-        <v>-0.01277561185057152</v>
+        <v>-0.03678570354466992</v>
       </c>
       <c r="G29">
-        <v>-0.00101231199406104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.05524257901336706</v>
+      </c>
+      <c r="H29">
+        <v>0.02520321011224656</v>
+      </c>
+      <c r="I29">
+        <v>-0.001709154057378114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1160629983203738</v>
+        <v>-0.09126489975894224</v>
       </c>
       <c r="C30">
-        <v>-0.02190197378802815</v>
+        <v>0.04979641895330816</v>
       </c>
       <c r="D30">
-        <v>-0.03379943160658232</v>
+        <v>0.03834820266137046</v>
       </c>
       <c r="E30">
-        <v>-0.1091693589386282</v>
+        <v>0.03405299179672953</v>
       </c>
       <c r="F30">
-        <v>-0.008424448940368664</v>
+        <v>-0.1031446016765006</v>
       </c>
       <c r="G30">
-        <v>-0.02437745994280973</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.022075851385787</v>
+      </c>
+      <c r="H30">
+        <v>-0.01188658445671764</v>
+      </c>
+      <c r="I30">
+        <v>0.004572528012189476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06942510713658893</v>
+        <v>-0.06143712186520946</v>
       </c>
       <c r="C31">
-        <v>-0.008696646236235983</v>
+        <v>0.02206438933421005</v>
       </c>
       <c r="D31">
-        <v>-0.01499237406331917</v>
+        <v>0.01063113564438206</v>
       </c>
       <c r="E31">
-        <v>0.0177607123036296</v>
+        <v>0.02439278122612461</v>
       </c>
       <c r="F31">
-        <v>-0.04966011217261393</v>
+        <v>-0.0006277970377363129</v>
       </c>
       <c r="G31">
-        <v>-0.0066441611257395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04283581864383697</v>
+      </c>
+      <c r="H31">
+        <v>0.03819945780986837</v>
+      </c>
+      <c r="I31">
+        <v>-0.01783532501214128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07097797584107278</v>
+        <v>-0.04409205203451763</v>
       </c>
       <c r="C32">
-        <v>-0.0398960955808375</v>
+        <v>0.0456396665899757</v>
       </c>
       <c r="D32">
-        <v>-0.02304638731526724</v>
+        <v>-0.01407705866129909</v>
       </c>
       <c r="E32">
-        <v>-0.1020476821572726</v>
+        <v>0.03444627331912849</v>
       </c>
       <c r="F32">
-        <v>-0.008628302469333578</v>
+        <v>-0.09147298720106063</v>
       </c>
       <c r="G32">
-        <v>-0.01899549478920782</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03404379856656268</v>
+      </c>
+      <c r="H32">
+        <v>0.0257567215837407</v>
+      </c>
+      <c r="I32">
+        <v>-0.03697423954758417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06920476050075178</v>
+        <v>-0.05642581955717714</v>
       </c>
       <c r="C33">
-        <v>-0.04669774086176845</v>
+        <v>0.05249193660533143</v>
       </c>
       <c r="D33">
-        <v>-0.01419340661324721</v>
+        <v>0.01965337774425011</v>
       </c>
       <c r="E33">
-        <v>-0.07953020560534906</v>
+        <v>0.01542318342933727</v>
       </c>
       <c r="F33">
-        <v>-0.01726350712452648</v>
+        <v>-0.0770865154690144</v>
       </c>
       <c r="G33">
-        <v>0.02993449430840646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04299481083329122</v>
+      </c>
+      <c r="H33">
+        <v>0.03992666357140761</v>
+      </c>
+      <c r="I33">
+        <v>-0.005226778835313599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05023107617351107</v>
+        <v>-0.04455882834144287</v>
       </c>
       <c r="C34">
-        <v>-0.02017735849405732</v>
+        <v>0.0345353134650741</v>
       </c>
       <c r="D34">
-        <v>-0.005771025716237685</v>
+        <v>-0.003996212940405504</v>
       </c>
       <c r="E34">
-        <v>-0.02814596232799641</v>
+        <v>0.01926286870041257</v>
       </c>
       <c r="F34">
-        <v>0.003151071172392318</v>
+        <v>-0.03283560506752323</v>
       </c>
       <c r="G34">
-        <v>-0.01180981074405928</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.009213499709100572</v>
+      </c>
+      <c r="H34">
+        <v>0.005944136525150813</v>
+      </c>
+      <c r="I34">
+        <v>-0.003186426293662017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01589549899333344</v>
+        <v>-0.01624994685313932</v>
       </c>
       <c r="C36">
-        <v>-0.001047525041467197</v>
+        <v>0.003655312060273361</v>
       </c>
       <c r="D36">
-        <v>-0.009798474466342832</v>
+        <v>-0.00454078418920688</v>
       </c>
       <c r="E36">
-        <v>-0.02403602201336685</v>
+        <v>0.009780370004494023</v>
       </c>
       <c r="F36">
-        <v>-0.01685260414697655</v>
+        <v>-0.02642218717754917</v>
       </c>
       <c r="G36">
-        <v>-0.004604689637252734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.03669360216414861</v>
+      </c>
+      <c r="H36">
+        <v>0.02267449795758412</v>
+      </c>
+      <c r="I36">
+        <v>0.007151070317012283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04854938950009411</v>
+        <v>-0.03476203112360554</v>
       </c>
       <c r="C38">
-        <v>-0.01691735303381774</v>
+        <v>0.01543531780868844</v>
       </c>
       <c r="D38">
-        <v>-0.02181522775052791</v>
+        <v>-0.003348403579061284</v>
       </c>
       <c r="E38">
-        <v>-0.02465921848358655</v>
+        <v>0.01319554111231146</v>
       </c>
       <c r="F38">
-        <v>0.02928316778277341</v>
+        <v>-0.04782064639561525</v>
       </c>
       <c r="G38">
-        <v>0.006978365451324842</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02306647455677828</v>
+      </c>
+      <c r="H38">
+        <v>0.02960522116281329</v>
+      </c>
+      <c r="I38">
+        <v>0.01472577974471846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07137825346896971</v>
+        <v>-0.05406302646524527</v>
       </c>
       <c r="C39">
-        <v>-0.01976845861607524</v>
+        <v>0.04569838674259694</v>
       </c>
       <c r="D39">
-        <v>-0.004394090258830026</v>
+        <v>0.005553497834510521</v>
       </c>
       <c r="E39">
-        <v>-0.043304330949165</v>
+        <v>0.01783241090419305</v>
       </c>
       <c r="F39">
-        <v>-0.000850779556531008</v>
+        <v>-0.05473894023730016</v>
       </c>
       <c r="G39">
-        <v>0.0103903319305041</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.007338822096841518</v>
+      </c>
+      <c r="H39">
+        <v>0.02152050082991706</v>
+      </c>
+      <c r="I39">
+        <v>0.02117980016383041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07804542911749922</v>
+        <v>-0.05505923132840652</v>
       </c>
       <c r="C40">
-        <v>-0.04235274690928806</v>
+        <v>0.04146033649169785</v>
       </c>
       <c r="D40">
-        <v>-0.01220866958892953</v>
+        <v>0.0207714768892481</v>
       </c>
       <c r="E40">
-        <v>-0.1109812141201554</v>
+        <v>0.02497093169520457</v>
       </c>
       <c r="F40">
-        <v>0.02149081931498298</v>
+        <v>-0.09439778831837879</v>
       </c>
       <c r="G40">
-        <v>0.002715743124502066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.04644224080315124</v>
+      </c>
+      <c r="H40">
+        <v>0.02382453151526194</v>
+      </c>
+      <c r="I40">
+        <v>-0.06095239648562265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.005090992118983787</v>
+        <v>-0.003961951988007189</v>
       </c>
       <c r="C41">
-        <v>-0.02112379521007216</v>
+        <v>0.01196257945743955</v>
       </c>
       <c r="D41">
-        <v>-0.02899377561423316</v>
+        <v>0.0002285881003819886</v>
       </c>
       <c r="E41">
-        <v>-0.01312015302407312</v>
+        <v>0.01128313587895946</v>
       </c>
       <c r="F41">
-        <v>-0.02086853611213801</v>
+        <v>-0.01306725058625754</v>
       </c>
       <c r="G41">
-        <v>0.02055350726984531</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03708489979431808</v>
+      </c>
+      <c r="H41">
+        <v>0.03814060992592061</v>
+      </c>
+      <c r="I41">
+        <v>-0.0251540510117093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1461016762274074</v>
+        <v>-0.2246422498207103</v>
       </c>
       <c r="C42">
-        <v>-0.2593885761752372</v>
+        <v>0.2795763432644293</v>
       </c>
       <c r="D42">
-        <v>0.9152252845895182</v>
+        <v>0.06289816817402032</v>
       </c>
       <c r="E42">
-        <v>0.09864205439220572</v>
+        <v>-0.8992862876597981</v>
       </c>
       <c r="F42">
-        <v>-0.1114204551094327</v>
+        <v>0.1665610474503114</v>
       </c>
       <c r="G42">
-        <v>-0.05446426342385215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.008150798223730448</v>
+      </c>
+      <c r="H42">
+        <v>-0.007132486464769839</v>
+      </c>
+      <c r="I42">
+        <v>-0.06530161159203771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.008311731231547291</v>
+        <v>-0.007917289348613216</v>
       </c>
       <c r="C43">
-        <v>-0.01840627240890672</v>
+        <v>0.01346718404213486</v>
       </c>
       <c r="D43">
-        <v>-0.01786273013649473</v>
+        <v>0.002793038643330758</v>
       </c>
       <c r="E43">
-        <v>-0.03483634006017784</v>
+        <v>0.01122630761093069</v>
       </c>
       <c r="F43">
-        <v>-0.01632465693693895</v>
+        <v>-0.02933115689731666</v>
       </c>
       <c r="G43">
-        <v>-0.005302160319086001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03248083673341728</v>
+      </c>
+      <c r="H43">
+        <v>0.02454625110590549</v>
+      </c>
+      <c r="I43">
+        <v>-0.01940079468599914</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04078263047830781</v>
+        <v>-0.02822485118504298</v>
       </c>
       <c r="C44">
-        <v>-0.04734778087581411</v>
+        <v>0.03865148466982112</v>
       </c>
       <c r="D44">
-        <v>-0.01702617074809628</v>
+        <v>-0.001403762595279479</v>
       </c>
       <c r="E44">
-        <v>-0.1357080343081777</v>
+        <v>0.01176505297224891</v>
       </c>
       <c r="F44">
-        <v>-0.03398664352119567</v>
+        <v>-0.1229519006222639</v>
       </c>
       <c r="G44">
-        <v>0.03860115476528619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0937254590227961</v>
+      </c>
+      <c r="H44">
+        <v>0.05512080154907566</v>
+      </c>
+      <c r="I44">
+        <v>-0.05191759428882359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02928258348128757</v>
+        <v>-0.02561568778745638</v>
       </c>
       <c r="C46">
-        <v>-0.02637580875607002</v>
+        <v>0.03459885347556348</v>
       </c>
       <c r="D46">
-        <v>-0.0320345849380379</v>
+        <v>0.003125114302725361</v>
       </c>
       <c r="E46">
-        <v>-0.03474728121365094</v>
+        <v>0.03107741465123153</v>
       </c>
       <c r="F46">
-        <v>-0.02314924066205206</v>
+        <v>-0.04953458351518088</v>
       </c>
       <c r="G46">
-        <v>0.009482673649839192</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.06169290053260838</v>
+      </c>
+      <c r="H46">
+        <v>0.02129376836296448</v>
+      </c>
+      <c r="I46">
+        <v>-0.004929283674206904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09348163678173771</v>
+        <v>-0.08771381440787661</v>
       </c>
       <c r="C47">
-        <v>-0.007547759811921627</v>
+        <v>0.01874054876525672</v>
       </c>
       <c r="D47">
-        <v>-0.01918800816936883</v>
+        <v>0.005449369614379824</v>
       </c>
       <c r="E47">
-        <v>0.01766633139737801</v>
+        <v>0.02804849883292085</v>
       </c>
       <c r="F47">
-        <v>-0.02316446268254115</v>
+        <v>0.01006849263203362</v>
       </c>
       <c r="G47">
-        <v>0.006489142088410107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.05665311188805982</v>
+      </c>
+      <c r="H47">
+        <v>0.03755446183107233</v>
+      </c>
+      <c r="I47">
+        <v>-0.0318050069808596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02057239537330417</v>
+        <v>-0.02084120061203852</v>
       </c>
       <c r="C48">
-        <v>-0.02321368726077927</v>
+        <v>0.01923707642745461</v>
       </c>
       <c r="D48">
-        <v>-0.017472035439596</v>
+        <v>-0.001103487621417903</v>
       </c>
       <c r="E48">
-        <v>-0.03134604028784845</v>
+        <v>0.0141890108839375</v>
       </c>
       <c r="F48">
-        <v>-0.005416954085681275</v>
+        <v>-0.02821284889086022</v>
       </c>
       <c r="G48">
-        <v>0.001499884437499941</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0249519858187417</v>
+      </c>
+      <c r="H48">
+        <v>0.02005915609478869</v>
+      </c>
+      <c r="I48">
+        <v>-0.01218273270634636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09560523216099105</v>
+        <v>-0.08790466906948262</v>
       </c>
       <c r="C50">
-        <v>-0.02614728173059445</v>
+        <v>0.03925707413308423</v>
       </c>
       <c r="D50">
-        <v>-0.02345453384535114</v>
+        <v>-0.009692074191800628</v>
       </c>
       <c r="E50">
-        <v>0.01624416885899181</v>
+        <v>0.02742182003517899</v>
       </c>
       <c r="F50">
-        <v>-0.04276906800245456</v>
+        <v>0.007071586834496156</v>
       </c>
       <c r="G50">
-        <v>-0.0006121956217680084</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.04271971944979835</v>
+      </c>
+      <c r="H50">
+        <v>-0.004722780714804576</v>
+      </c>
+      <c r="I50">
+        <v>0.003997542111492296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0529274113188922</v>
+        <v>-0.03887373353362628</v>
       </c>
       <c r="C51">
-        <v>0.01833233587646281</v>
+        <v>-0.005430821458127849</v>
       </c>
       <c r="D51">
-        <v>0.001278942477823695</v>
+        <v>0.01249088164496731</v>
       </c>
       <c r="E51">
-        <v>-0.08869413935617923</v>
+        <v>0.008228889283368577</v>
       </c>
       <c r="F51">
-        <v>-0.05097864145383807</v>
+        <v>-0.09876236231894446</v>
       </c>
       <c r="G51">
-        <v>0.02496020190507327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.06027811243597518</v>
+      </c>
+      <c r="H51">
+        <v>0.05719699823956702</v>
+      </c>
+      <c r="I51">
+        <v>-0.02522342962741751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1422160270264798</v>
+        <v>-0.1251348210754868</v>
       </c>
       <c r="C53">
-        <v>-0.01485885220977879</v>
+        <v>0.0374334467303556</v>
       </c>
       <c r="D53">
-        <v>-0.04746746217136631</v>
+        <v>0.006763018884506238</v>
       </c>
       <c r="E53">
-        <v>0.04922288975931641</v>
+        <v>0.05740069877977937</v>
       </c>
       <c r="F53">
-        <v>-0.03566686543452782</v>
+        <v>0.04417473128385354</v>
       </c>
       <c r="G53">
-        <v>0.009315241605597945</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0009053472011410043</v>
+      </c>
+      <c r="H53">
+        <v>0.03375552915458187</v>
+      </c>
+      <c r="I53">
+        <v>-0.04276847359280968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02562324187138933</v>
+        <v>-0.02530801478217184</v>
       </c>
       <c r="C54">
-        <v>-0.006514992840995217</v>
+        <v>0.003756377573975368</v>
       </c>
       <c r="D54">
-        <v>-0.02829665306873454</v>
+        <v>-0.005044091602962119</v>
       </c>
       <c r="E54">
-        <v>-0.0411095529601449</v>
+        <v>0.02514502877801855</v>
       </c>
       <c r="F54">
-        <v>-0.01918251799141703</v>
+        <v>-0.03649892906500118</v>
       </c>
       <c r="G54">
-        <v>0.02676026106745747</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05273130143609482</v>
+      </c>
+      <c r="H54">
+        <v>0.04455655235656209</v>
+      </c>
+      <c r="I54">
+        <v>-0.022588400848094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1047523484444665</v>
+        <v>-0.0988386555209526</v>
       </c>
       <c r="C55">
-        <v>0.000191026232501108</v>
+        <v>0.03320012149067265</v>
       </c>
       <c r="D55">
-        <v>-0.03857973272998605</v>
+        <v>-0.01107709407579023</v>
       </c>
       <c r="E55">
-        <v>0.01838237098998806</v>
+        <v>0.03763244439705683</v>
       </c>
       <c r="F55">
-        <v>0.02020145764143506</v>
+        <v>0.03117565051610185</v>
       </c>
       <c r="G55">
-        <v>-0.02519176843444077</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01431989003903983</v>
+      </c>
+      <c r="H55">
+        <v>-0.002515392656384399</v>
+      </c>
+      <c r="I55">
+        <v>-0.01611159517185571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1777859492660217</v>
+        <v>-0.1638949412509772</v>
       </c>
       <c r="C56">
-        <v>0.02094120075575982</v>
+        <v>0.02067727027406973</v>
       </c>
       <c r="D56">
-        <v>-0.08658667660775808</v>
+        <v>-8.786984806908135e-05</v>
       </c>
       <c r="E56">
-        <v>0.1074545099893402</v>
+        <v>0.08911702402176633</v>
       </c>
       <c r="F56">
-        <v>0.006003387876649365</v>
+        <v>0.08933283849481527</v>
       </c>
       <c r="G56">
-        <v>-0.04098461701765176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04406956932358018</v>
+      </c>
+      <c r="H56">
+        <v>-0.007015732891020875</v>
+      </c>
+      <c r="I56">
+        <v>-0.04108984551789609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08475574986600756</v>
+        <v>-0.06548494492341674</v>
       </c>
       <c r="C57">
-        <v>-0.03016399580264663</v>
+        <v>0.03185493629206638</v>
       </c>
       <c r="D57">
-        <v>-0.02350614561941415</v>
+        <v>0.01799324102712069</v>
       </c>
       <c r="E57">
-        <v>-0.04805552818834752</v>
+        <v>0.007652553190908328</v>
       </c>
       <c r="F57">
-        <v>-0.0477387858182714</v>
+        <v>-0.06618202674360149</v>
       </c>
       <c r="G57">
-        <v>-0.00251636033325463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.03611130255999167</v>
+      </c>
+      <c r="H57">
+        <v>0.01780106210123809</v>
+      </c>
+      <c r="I57">
+        <v>-0.008928341541234322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2039485083326631</v>
+        <v>-0.2097454584750534</v>
       </c>
       <c r="C58">
-        <v>-0.01785831063980794</v>
+        <v>0.09721937930637664</v>
       </c>
       <c r="D58">
-        <v>-0.004183329876563633</v>
+        <v>0.09481293267608706</v>
       </c>
       <c r="E58">
-        <v>-0.131113489416627</v>
+        <v>-0.01371018177368098</v>
       </c>
       <c r="F58">
-        <v>-0.02686905625323666</v>
+        <v>-0.2585596033844961</v>
       </c>
       <c r="G58">
-        <v>-0.1140617513592952</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.3717740907447074</v>
+      </c>
+      <c r="H58">
+        <v>-0.3038566145826446</v>
+      </c>
+      <c r="I58">
+        <v>0.3879412909554961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.0165641100695731</v>
+        <v>-0.05235896880351051</v>
       </c>
       <c r="C59">
-        <v>0.1983403149176158</v>
+        <v>-0.1997952195187291</v>
       </c>
       <c r="D59">
-        <v>0.01628790431976192</v>
+        <v>0.01794304174418546</v>
       </c>
       <c r="E59">
-        <v>-0.05958009602395327</v>
+        <v>-0.02116701467090382</v>
       </c>
       <c r="F59">
-        <v>-0.004188838475995872</v>
+        <v>-0.06977253508038284</v>
       </c>
       <c r="G59">
-        <v>0.009430249897426198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02466503120462421</v>
+      </c>
+      <c r="H59">
+        <v>0.01472696554564515</v>
+      </c>
+      <c r="I59">
+        <v>-0.05071541763341368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1879647759531765</v>
+        <v>-0.1894226899765538</v>
       </c>
       <c r="C60">
-        <v>0.09604490083200017</v>
+        <v>-0.04886738661214637</v>
       </c>
       <c r="D60">
-        <v>-0.0006395248551212632</v>
+        <v>0.05095408259280981</v>
       </c>
       <c r="E60">
-        <v>-0.1797719321421843</v>
+        <v>0.00864068726679036</v>
       </c>
       <c r="F60">
-        <v>-0.01515192281173314</v>
+        <v>-0.1990681100087903</v>
       </c>
       <c r="G60">
-        <v>0.07699652222079045</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2811890948859495</v>
+      </c>
+      <c r="H60">
+        <v>-0.006952335184844876</v>
+      </c>
+      <c r="I60">
+        <v>0.09057124466635157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04269630273759626</v>
+        <v>-0.03851065041680289</v>
       </c>
       <c r="C61">
-        <v>-0.01163036299721852</v>
+        <v>0.02972560869065804</v>
       </c>
       <c r="D61">
-        <v>-0.002460170886031201</v>
+        <v>-0.000309603812284659</v>
       </c>
       <c r="E61">
-        <v>-0.03983496444431622</v>
+        <v>0.008468538764953544</v>
       </c>
       <c r="F61">
-        <v>0.007141622509547278</v>
+        <v>-0.03988242597544744</v>
       </c>
       <c r="G61">
-        <v>0.006887131387210556</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.001915349654573592</v>
+      </c>
+      <c r="H61">
+        <v>0.01850223052500838</v>
+      </c>
+      <c r="I61">
+        <v>0.03651549715846442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04460185922636645</v>
+        <v>-0.03142318502149225</v>
       </c>
       <c r="C63">
-        <v>-0.01485797732257865</v>
+        <v>0.02197387163415104</v>
       </c>
       <c r="D63">
-        <v>-0.01778388192471647</v>
+        <v>0.001830029773107694</v>
       </c>
       <c r="E63">
-        <v>-0.04152266319863395</v>
+        <v>0.01519074079015542</v>
       </c>
       <c r="F63">
-        <v>-0.01974029721302643</v>
+        <v>-0.02851084575875089</v>
       </c>
       <c r="G63">
-        <v>-0.004577508891270821</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.05257522367932348</v>
+      </c>
+      <c r="H63">
+        <v>0.007491736954513954</v>
+      </c>
+      <c r="I63">
+        <v>-0.03813576711642605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07728903875172752</v>
+        <v>-0.06034706871890893</v>
       </c>
       <c r="C64">
-        <v>-0.04923513973122831</v>
+        <v>0.0440827906746858</v>
       </c>
       <c r="D64">
-        <v>-0.05127871833586584</v>
+        <v>-0.0141305353405082</v>
       </c>
       <c r="E64">
-        <v>-0.04926489593385829</v>
+        <v>0.040852579451022</v>
       </c>
       <c r="F64">
-        <v>0.03068268713757021</v>
+        <v>-0.05021435839024593</v>
       </c>
       <c r="G64">
-        <v>0.0937141425701386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005852567060569806</v>
+      </c>
+      <c r="H64">
+        <v>0.08346071035833441</v>
+      </c>
+      <c r="I64">
+        <v>-0.03766434235298512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02206000291137314</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01128978603728624</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006033525882546581</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006216948147793079</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001684791290593877</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.005818010845387757</v>
+      </c>
+      <c r="H65">
+        <v>-0.01790774165675798</v>
+      </c>
+      <c r="I65">
+        <v>0.0148282369707545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08409426779924788</v>
+        <v>-0.0674001220889813</v>
       </c>
       <c r="C66">
-        <v>-0.034724969485708</v>
+        <v>0.05586664037012046</v>
       </c>
       <c r="D66">
-        <v>-0.03727777732282829</v>
+        <v>0.0131494417969397</v>
       </c>
       <c r="E66">
-        <v>-0.08383163769974471</v>
+        <v>0.0480144268577238</v>
       </c>
       <c r="F66">
-        <v>-0.002268333787823287</v>
+        <v>-0.06823967542514407</v>
       </c>
       <c r="G66">
-        <v>0.009205975259631786</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.002296372642330622</v>
+      </c>
+      <c r="H66">
+        <v>0.01291079739113365</v>
+      </c>
+      <c r="I66">
+        <v>0.01312006267833729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05747287434825208</v>
+        <v>-0.04727845065557851</v>
       </c>
       <c r="C67">
-        <v>0.01188716502653961</v>
+        <v>-0.003183293994392158</v>
       </c>
       <c r="D67">
-        <v>-0.01096501429398661</v>
+        <v>0.001998103222855068</v>
       </c>
       <c r="E67">
-        <v>-0.01769300970026725</v>
+        <v>0.009166086581577415</v>
       </c>
       <c r="F67">
-        <v>0.02228306665427594</v>
+        <v>-0.03653838170990806</v>
       </c>
       <c r="G67">
-        <v>0.01640813673714869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.007654281906005993</v>
+      </c>
+      <c r="H67">
+        <v>0.04207998936749344</v>
+      </c>
+      <c r="I67">
+        <v>0.03725606023020846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.02850830688884603</v>
+        <v>-0.06204873077402088</v>
       </c>
       <c r="C68">
-        <v>0.2435705973288469</v>
+        <v>-0.2329296257146087</v>
       </c>
       <c r="D68">
-        <v>0.0340417659525103</v>
+        <v>0.01843966028274767</v>
       </c>
       <c r="E68">
-        <v>-0.0471864220162861</v>
+        <v>-0.03776303811794354</v>
       </c>
       <c r="F68">
-        <v>-0.03552662414542222</v>
+        <v>-0.0535558633777283</v>
       </c>
       <c r="G68">
-        <v>0.001868813150956279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02643686190248842</v>
+      </c>
+      <c r="H68">
+        <v>-0.005715924525810158</v>
+      </c>
+      <c r="I68">
+        <v>-0.1178436010627646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07266124470370933</v>
+        <v>-0.07262217000330431</v>
       </c>
       <c r="C69">
-        <v>-0.008651514177917069</v>
+        <v>0.01839549806297151</v>
       </c>
       <c r="D69">
-        <v>-0.02640186178424481</v>
+        <v>0.006161605193601234</v>
       </c>
       <c r="E69">
-        <v>0.01509193853517632</v>
+        <v>0.03226561067665407</v>
       </c>
       <c r="F69">
-        <v>-0.02292128847955761</v>
+        <v>0.00108915286421557</v>
       </c>
       <c r="G69">
-        <v>-0.007261867541477519</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.03621192347103057</v>
+      </c>
+      <c r="H69">
+        <v>0.02445086531155813</v>
+      </c>
+      <c r="I69">
+        <v>-0.005326509943733192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.01874702399216213</v>
+        <v>-0.05809715821918473</v>
       </c>
       <c r="C71">
-        <v>0.2817673918224069</v>
+        <v>-0.2498157519452051</v>
       </c>
       <c r="D71">
-        <v>0.04944244553345797</v>
+        <v>0.02229468056960425</v>
       </c>
       <c r="E71">
-        <v>-0.08153510915394094</v>
+        <v>-0.06461554609328909</v>
       </c>
       <c r="F71">
-        <v>-0.03425304225641266</v>
+        <v>-0.07288740196765393</v>
       </c>
       <c r="G71">
-        <v>0.0163159793678612</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02319671292864536</v>
+      </c>
+      <c r="H71">
+        <v>0.01951610212334559</v>
+      </c>
+      <c r="I71">
+        <v>-0.1022426570419141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1278591212226464</v>
+        <v>-0.1247731414101236</v>
       </c>
       <c r="C72">
-        <v>0.02175901779886023</v>
+        <v>0.0304120976497466</v>
       </c>
       <c r="D72">
-        <v>-0.04132980399179666</v>
+        <v>0.007905660052056849</v>
       </c>
       <c r="E72">
-        <v>-0.07955363896249874</v>
+        <v>0.06436463639480484</v>
       </c>
       <c r="F72">
-        <v>0.01449572700098288</v>
+        <v>-0.08430629854566961</v>
       </c>
       <c r="G72">
-        <v>-0.01684766470816715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.007977363897092348</v>
+      </c>
+      <c r="H72">
+        <v>-0.0323358407256434</v>
+      </c>
+      <c r="I72">
+        <v>0.1145416346370235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2874357269287943</v>
+        <v>-0.2721250918875343</v>
       </c>
       <c r="C73">
-        <v>0.1861509385704357</v>
+        <v>-0.07159667937554937</v>
       </c>
       <c r="D73">
-        <v>0.06666020405174247</v>
+        <v>0.0914244666817781</v>
       </c>
       <c r="E73">
-        <v>-0.3243681459356414</v>
+        <v>-0.03913174758954761</v>
       </c>
       <c r="F73">
-        <v>0.03954719734384447</v>
+        <v>-0.3026751466482798</v>
       </c>
       <c r="G73">
-        <v>0.1227857719535513</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4876337273558563</v>
+      </c>
+      <c r="H73">
+        <v>-0.08032736040692291</v>
+      </c>
+      <c r="I73">
+        <v>0.2834740109344114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1611508578995601</v>
+        <v>-0.1512108428191555</v>
       </c>
       <c r="C74">
-        <v>-0.006565423043306436</v>
+        <v>0.03381791277343822</v>
       </c>
       <c r="D74">
-        <v>-0.04179765524425372</v>
+        <v>0.01259231407558334</v>
       </c>
       <c r="E74">
-        <v>0.04643924512410807</v>
+        <v>0.05324064062274272</v>
       </c>
       <c r="F74">
-        <v>-0.03469093889957961</v>
+        <v>0.06410589895621777</v>
       </c>
       <c r="G74">
-        <v>-0.05710521079769512</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.02519139147756098</v>
+      </c>
+      <c r="H74">
+        <v>-0.005890684819892737</v>
+      </c>
+      <c r="I74">
+        <v>-0.03293351232580426</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2406137626587156</v>
+        <v>-0.2415599537374686</v>
       </c>
       <c r="C75">
-        <v>0.001909256852603052</v>
+        <v>0.02646261613396968</v>
       </c>
       <c r="D75">
-        <v>-0.0805612854379518</v>
+        <v>0.02735593219243803</v>
       </c>
       <c r="E75">
-        <v>0.1365479500365932</v>
+        <v>0.1161980659499479</v>
       </c>
       <c r="F75">
-        <v>-0.04561096390721601</v>
+        <v>0.1457131615562353</v>
       </c>
       <c r="G75">
-        <v>-0.0008678066448060699</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02409243659441795</v>
+      </c>
+      <c r="H75">
+        <v>0.02206054492275524</v>
+      </c>
+      <c r="I75">
+        <v>-0.08630213397932088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2487828767862718</v>
+        <v>-0.2622246142419046</v>
       </c>
       <c r="C76">
-        <v>0.02797459900063013</v>
+        <v>0.0154141776578473</v>
       </c>
       <c r="D76">
-        <v>-0.1095625326159561</v>
+        <v>-0.01263233226051612</v>
       </c>
       <c r="E76">
-        <v>0.1297883556209086</v>
+        <v>0.1409048675990584</v>
       </c>
       <c r="F76">
-        <v>-0.01797174439376589</v>
+        <v>0.178579127447989</v>
       </c>
       <c r="G76">
-        <v>-0.04854491398221409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.04637702305284774</v>
+      </c>
+      <c r="H76">
+        <v>-0.04067151388764878</v>
+      </c>
+      <c r="I76">
+        <v>-0.04820556609778054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.136653969039853</v>
+        <v>-0.1222753927286475</v>
       </c>
       <c r="C77">
-        <v>-0.0623825552251538</v>
+        <v>0.0751730511658075</v>
       </c>
       <c r="D77">
-        <v>0.02770112771825605</v>
+        <v>0.008051817598955664</v>
       </c>
       <c r="E77">
-        <v>-0.1568517769961513</v>
+        <v>-0.02840304317567653</v>
       </c>
       <c r="F77">
-        <v>0.04063985197598675</v>
+        <v>-0.1584933170365823</v>
       </c>
       <c r="G77">
-        <v>0.0009524732166798277</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1833151077355327</v>
+      </c>
+      <c r="H77">
+        <v>-0.03911764057436475</v>
+      </c>
+      <c r="I77">
+        <v>-0.2892289597327209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08760784531039699</v>
+        <v>-0.07460029265515607</v>
       </c>
       <c r="C78">
-        <v>-0.0505626542822864</v>
+        <v>0.0761265452867856</v>
       </c>
       <c r="D78">
-        <v>0.005283883731229812</v>
+        <v>-0.004855668460689928</v>
       </c>
       <c r="E78">
-        <v>-0.05529190261217733</v>
+        <v>0.01491568657121</v>
       </c>
       <c r="F78">
-        <v>-0.003694233285478242</v>
+        <v>-0.07662659521728855</v>
       </c>
       <c r="G78">
-        <v>-0.003055920069062181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.02542576059536002</v>
+      </c>
+      <c r="H78">
+        <v>0.0160561475283111</v>
+      </c>
+      <c r="I78">
+        <v>-0.03274120672677314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05545494656671517</v>
+        <v>-0.1403618013048819</v>
       </c>
       <c r="C80">
-        <v>-0.003141699009720335</v>
+        <v>-0.036778532025217</v>
       </c>
       <c r="D80">
-        <v>0.08676009627564453</v>
+        <v>-0.9738528377784188</v>
       </c>
       <c r="E80">
-        <v>0.07954815214033535</v>
+        <v>-0.06574585422174491</v>
       </c>
       <c r="F80">
-        <v>0.962511500373271</v>
+        <v>-0.04822464798185822</v>
       </c>
       <c r="G80">
-        <v>0.04472830272423396</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03921805873491781</v>
+      </c>
+      <c r="H80">
+        <v>0.03279630132818839</v>
+      </c>
+      <c r="I80">
+        <v>0.06367802811286251</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1668489249084378</v>
+        <v>-0.178812417336818</v>
       </c>
       <c r="C81">
-        <v>0.01588770288271372</v>
+        <v>0.005487544605733858</v>
       </c>
       <c r="D81">
-        <v>-0.05398217239956712</v>
+        <v>0.005987650566266499</v>
       </c>
       <c r="E81">
-        <v>0.1745893327770253</v>
+        <v>0.0869721217844998</v>
       </c>
       <c r="F81">
-        <v>-0.03078805082940472</v>
+        <v>0.1562929634297843</v>
       </c>
       <c r="G81">
-        <v>-0.05238555223210543</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.005637577194878327</v>
+      </c>
+      <c r="H81">
+        <v>-0.01881022934305096</v>
+      </c>
+      <c r="I81">
+        <v>-0.04567605101481792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09213954348972291</v>
+        <v>-0.06935432612054403</v>
       </c>
       <c r="C83">
-        <v>-0.0784056074372923</v>
+        <v>0.0552512436781426</v>
       </c>
       <c r="D83">
-        <v>0.05696010532413986</v>
+        <v>0.01452419335901472</v>
       </c>
       <c r="E83">
-        <v>-0.02103110789036106</v>
+        <v>-0.03457255312184074</v>
       </c>
       <c r="F83">
-        <v>-0.03521907978762939</v>
+        <v>-0.04592241067337333</v>
       </c>
       <c r="G83">
-        <v>0.0419970667351306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0426502729702685</v>
+      </c>
+      <c r="H83">
+        <v>0.05874385027942813</v>
+      </c>
+      <c r="I83">
+        <v>-0.04265852075015951</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2374594854521257</v>
+        <v>-0.2484680361496808</v>
       </c>
       <c r="C85">
-        <v>-0.04698922332871119</v>
+        <v>0.05487803019304724</v>
       </c>
       <c r="D85">
-        <v>-0.07301895922981133</v>
+        <v>0.006774306877895451</v>
       </c>
       <c r="E85">
-        <v>0.1612609414365201</v>
+        <v>0.113273967102309</v>
       </c>
       <c r="F85">
-        <v>0.001208605366558746</v>
+        <v>0.1829711218892016</v>
       </c>
       <c r="G85">
-        <v>-0.06341849576178814</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.00975577681636992</v>
+      </c>
+      <c r="H85">
+        <v>-0.01360990882683935</v>
+      </c>
+      <c r="I85">
+        <v>-0.07395728653752591</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04273454156826581</v>
+        <v>-0.02826212576259369</v>
       </c>
       <c r="C86">
-        <v>-0.04397099055736284</v>
+        <v>0.04902622522653389</v>
       </c>
       <c r="D86">
-        <v>-0.00701605538866814</v>
+        <v>0.001993662487777346</v>
       </c>
       <c r="E86">
-        <v>-0.0686360560469863</v>
+        <v>0.0183126196012815</v>
       </c>
       <c r="F86">
-        <v>0.004671492910749299</v>
+        <v>-0.07910110477029143</v>
       </c>
       <c r="G86">
-        <v>-0.01971421898559197</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06747676875600629</v>
+      </c>
+      <c r="H86">
+        <v>0.002229554327799492</v>
+      </c>
+      <c r="I86">
+        <v>-0.02768998469497941</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02617454461442657</v>
+        <v>-0.03318104645061652</v>
       </c>
       <c r="C87">
-        <v>0.05518867029981898</v>
+        <v>-0.009656857359530379</v>
       </c>
       <c r="D87">
-        <v>0.005022382209223917</v>
+        <v>0.001683608238971094</v>
       </c>
       <c r="E87">
-        <v>-0.09546493676470381</v>
+        <v>0.001850952417086699</v>
       </c>
       <c r="F87">
-        <v>0.0008336368811749936</v>
+        <v>-0.1027031531365392</v>
       </c>
       <c r="G87">
-        <v>-0.04153538856593636</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.006391595233844882</v>
+      </c>
+      <c r="H87">
+        <v>-0.02649571346781489</v>
+      </c>
+      <c r="I87">
+        <v>0.005823965154026505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03092403188572565</v>
+        <v>-0.03150581925827272</v>
       </c>
       <c r="C88">
-        <v>-0.02516343639547388</v>
+        <v>0.01130043784212898</v>
       </c>
       <c r="D88">
-        <v>-0.001908238003538827</v>
+        <v>-0.008582645263121472</v>
       </c>
       <c r="E88">
-        <v>0.01048720218424978</v>
+        <v>0.007590388137548987</v>
       </c>
       <c r="F88">
-        <v>0.003920791462323357</v>
+        <v>0.01237322542195367</v>
       </c>
       <c r="G88">
-        <v>-0.004941981566690674</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03693238037769913</v>
+      </c>
+      <c r="H88">
+        <v>0.04383259190894832</v>
+      </c>
+      <c r="I88">
+        <v>0.01011269302358304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.01895663028660174</v>
+        <v>-0.0921177232356573</v>
       </c>
       <c r="C89">
-        <v>0.3757458412803678</v>
+        <v>-0.3866038307109075</v>
       </c>
       <c r="D89">
-        <v>0.1156561414578602</v>
+        <v>0.04719797366015974</v>
       </c>
       <c r="E89">
-        <v>-0.005242498166036942</v>
+        <v>-0.08441341425460955</v>
       </c>
       <c r="F89">
-        <v>-0.04007198311375788</v>
+        <v>-0.03209170303993556</v>
       </c>
       <c r="G89">
-        <v>0.004997472520650486</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0408807043220856</v>
+      </c>
+      <c r="H89">
+        <v>0.02934794883227078</v>
+      </c>
+      <c r="I89">
+        <v>-0.2235262908621672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.01039207937076015</v>
+        <v>-0.05733122686866819</v>
       </c>
       <c r="C90">
-        <v>0.288276099071004</v>
+        <v>-0.3188570908893835</v>
       </c>
       <c r="D90">
-        <v>0.06876514406172927</v>
+        <v>0.01977079033766224</v>
       </c>
       <c r="E90">
-        <v>-0.05816477788698248</v>
+        <v>-0.06907074182510063</v>
       </c>
       <c r="F90">
-        <v>-0.03278757840923501</v>
+        <v>-0.03504915368136099</v>
       </c>
       <c r="G90">
-        <v>0.02745477214388472</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.003111317393418178</v>
+      </c>
+      <c r="H90">
+        <v>0.01129414026075173</v>
+      </c>
+      <c r="I90">
+        <v>-0.1798743308306448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2800639424822717</v>
+        <v>-0.2878678871518426</v>
       </c>
       <c r="C91">
-        <v>-0.04350350362665961</v>
+        <v>0.05303986582066898</v>
       </c>
       <c r="D91">
-        <v>-0.08515154404030714</v>
+        <v>0.01352853468492236</v>
       </c>
       <c r="E91">
-        <v>0.2701369578991621</v>
+        <v>0.1063232725862338</v>
       </c>
       <c r="F91">
-        <v>0.006943661816061287</v>
+        <v>0.2677009556316004</v>
       </c>
       <c r="G91">
-        <v>-0.02296515778409385</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02026469804831394</v>
+      </c>
+      <c r="H91">
+        <v>-0.01984703400610945</v>
+      </c>
+      <c r="I91">
+        <v>-0.09102066030682446</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05421781944238666</v>
+        <v>-0.132237107044563</v>
       </c>
       <c r="C92">
-        <v>0.3986635901260434</v>
+        <v>-0.4096244601781983</v>
       </c>
       <c r="D92">
-        <v>0.1841307505725001</v>
+        <v>0.004455809996390934</v>
       </c>
       <c r="E92">
-        <v>0.1075959533161697</v>
+        <v>-0.1157885215098577</v>
       </c>
       <c r="F92">
-        <v>0.0722767429891092</v>
+        <v>0.1186302719949523</v>
       </c>
       <c r="G92">
-        <v>-0.06002279989749584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.483831196550528</v>
+      </c>
+      <c r="H92">
+        <v>0.03438672571746947</v>
+      </c>
+      <c r="I92">
+        <v>0.4838379500351946</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.005487004931940101</v>
+        <v>-0.07520060598649532</v>
       </c>
       <c r="C93">
-        <v>0.3644338506772271</v>
+        <v>-0.3864279984575866</v>
       </c>
       <c r="D93">
-        <v>0.09736508829414257</v>
+        <v>0.0397553719196744</v>
       </c>
       <c r="E93">
-        <v>0.02370235404184185</v>
+        <v>-0.109575922482198</v>
       </c>
       <c r="F93">
-        <v>0.01595836738258438</v>
+        <v>0.0007619320370730703</v>
       </c>
       <c r="G93">
-        <v>0.04299262452337119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0195853288471082</v>
+      </c>
+      <c r="H93">
+        <v>0.05078131369949234</v>
+      </c>
+      <c r="I93">
+        <v>-0.106105296388191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2850389512911295</v>
+        <v>-0.3107670840292873</v>
       </c>
       <c r="C94">
-        <v>0.1049363100329413</v>
+        <v>-0.04225678621147618</v>
       </c>
       <c r="D94">
-        <v>-0.04362304163371183</v>
+        <v>0.0424043187284002</v>
       </c>
       <c r="E94">
-        <v>0.4017129637927885</v>
+        <v>0.1369290701351688</v>
       </c>
       <c r="F94">
-        <v>-0.03900130521746246</v>
+        <v>0.3404200450015183</v>
       </c>
       <c r="G94">
-        <v>-0.3949663858680698</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.06422887063774908</v>
+      </c>
+      <c r="H94">
+        <v>-0.2508407747717585</v>
+      </c>
+      <c r="I94">
+        <v>-0.02115309065737667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1614947448480234</v>
+        <v>-0.128524905235146</v>
       </c>
       <c r="C95">
-        <v>-0.041834801525533</v>
+        <v>0.05646552005821028</v>
       </c>
       <c r="D95">
-        <v>0.001353914865645808</v>
+        <v>0.08671339731195574</v>
       </c>
       <c r="E95">
-        <v>0.2801691913907211</v>
+        <v>0.03009581346379488</v>
       </c>
       <c r="F95">
-        <v>-0.06901635535164448</v>
+        <v>0.08283049435384877</v>
       </c>
       <c r="G95">
-        <v>0.8598854356728584</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.01660287150037638</v>
+      </c>
+      <c r="H95">
+        <v>0.8778708856869316</v>
+      </c>
+      <c r="I95">
+        <v>0.2031630959267688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2141633800210442</v>
+        <v>-0.2069826377542054</v>
       </c>
       <c r="C98">
-        <v>0.1014480069104213</v>
+        <v>-0.05825672943361954</v>
       </c>
       <c r="D98">
-        <v>0.04004233452106896</v>
+        <v>0.06434834540260134</v>
       </c>
       <c r="E98">
-        <v>-0.09000976870866534</v>
+        <v>-0.03038676847758126</v>
       </c>
       <c r="F98">
-        <v>-0.04111928485404821</v>
+        <v>-0.1627926384968478</v>
       </c>
       <c r="G98">
-        <v>0.09854316806690387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.328684204363352</v>
+      </c>
+      <c r="H98">
+        <v>-0.02121508665172279</v>
+      </c>
+      <c r="I98">
+        <v>0.1689604853013279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02580160062562859</v>
+        <v>-0.01807201383887446</v>
       </c>
       <c r="C101">
-        <v>-0.02151741979951553</v>
+        <v>0.02753516579158136</v>
       </c>
       <c r="D101">
-        <v>-0.03262297046028331</v>
+        <v>-0.004402271485791389</v>
       </c>
       <c r="E101">
-        <v>-0.03716586621300491</v>
+        <v>0.03464289316484205</v>
       </c>
       <c r="F101">
-        <v>-0.01247779734427852</v>
+        <v>-0.06825836460651342</v>
       </c>
       <c r="G101">
-        <v>-0.0009379593233183113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1165642959880912</v>
+      </c>
+      <c r="H101">
+        <v>-0.006508892699056588</v>
+      </c>
+      <c r="I101">
+        <v>0.08244690728075083</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1102742738435481</v>
+        <v>-0.1164313203554967</v>
       </c>
       <c r="C102">
-        <v>-0.02355490528053044</v>
+        <v>0.02840574301700112</v>
       </c>
       <c r="D102">
-        <v>-0.04120893248771004</v>
+        <v>-0.004999931716304792</v>
       </c>
       <c r="E102">
-        <v>0.09659108577081825</v>
+        <v>0.0558371567760666</v>
       </c>
       <c r="F102">
-        <v>0.02179956044913475</v>
+        <v>0.1093283018250126</v>
       </c>
       <c r="G102">
-        <v>-0.01092690636128278</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.00694083844518187</v>
+      </c>
+      <c r="H102">
+        <v>0.002108867159429469</v>
+      </c>
+      <c r="I102">
+        <v>-0.06839958948077532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02080448059644122</v>
+        <v>-0.02938737032742933</v>
       </c>
       <c r="C103">
-        <v>-0.004455938767920584</v>
+        <v>0.007119664335601654</v>
       </c>
       <c r="D103">
-        <v>-0.01119217912207082</v>
+        <v>-0.008539730166272685</v>
       </c>
       <c r="E103">
-        <v>0.03461319342196622</v>
+        <v>0.02065402731739412</v>
       </c>
       <c r="F103">
-        <v>-0.006790022805872001</v>
+        <v>0.02692831797272523</v>
       </c>
       <c r="G103">
-        <v>-0.008653404901556708</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01462340776779623</v>
+      </c>
+      <c r="H103">
+        <v>0.0115217625937377</v>
+      </c>
+      <c r="I103">
+        <v>-0.02267347514248341</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
